--- a/data/trans_bre/IP2005-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-1,17%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,83</t>
+          <t>-3,21; 6,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 6,03</t>
+          <t>-5,76; 4,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 10,0</t>
+          <t>-3,58; 4,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,56</t>
+          <t>-6,94; 4,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 5,7</t>
+          <t>-3,53; 7,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 7,16</t>
+          <t>-6,25; 4,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 11,99</t>
+          <t>-3,85; 4,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 6,47</t>
+          <t>-7,67; 5,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 6,38</t>
+          <t>-4,43; 4,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 4,25</t>
+          <t>-3,83; 6,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,46</t>
+          <t>0,77; 10,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 4,45</t>
+          <t>-3,22; 5,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,41</t>
+          <t>-4,97; 5,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 4,84</t>
+          <t>-4,36; 7,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,94</t>
+          <t>0,87; 11,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,2</t>
+          <t>-3,52; 6,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2005-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,96%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,2%</t>
+          <t>-6,7%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,57</t>
+          <t>-10,37; 4,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; -0,7</t>
+          <t>-5,14; 1,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,89</t>
+          <t>-3,31; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 0,06</t>
+          <t>-17,81; 6,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,8</t>
+          <t>-10,98; 4,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -0,69</t>
+          <t>-5,21; 1,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,91</t>
+          <t>-3,31; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 0,07</t>
+          <t>-20,21; 8,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>-1,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>-1,25%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 6,38</t>
+          <t>-3,03; 4,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 4,25</t>
+          <t>-5,72; 2,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,46</t>
+          <t>-5,02; 1,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 4,45</t>
+          <t>-6,96; 4,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,41</t>
+          <t>-3,27; 5,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 4,84</t>
+          <t>-6,02; 2,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,94</t>
+          <t>-5,21; 2,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,2</t>
+          <t>-7,66; 5,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 4,83</t>
+          <t>-9,07; 5,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 6,03</t>
+          <t>-5,86; 7,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 10,0</t>
+          <t>2,1; 12,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,56</t>
+          <t>-4,71; 7,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 5,7</t>
+          <t>-10,13; 7,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 7,16</t>
+          <t>-6,37; 8,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 11,99</t>
+          <t>2,49; 16,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 6,47</t>
+          <t>-5,3; 9,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-1,18%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,81</t>
+          <t>-5,38; 5,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,82</t>
+          <t>-5,41; 6,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,45</t>
+          <t>-3,04; 7,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,18</t>
+          <t>-6,1; 3,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,21</t>
+          <t>-6,04; 6,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,04</t>
+          <t>-6,11; 7,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,0</t>
+          <t>-3,4; 9,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,52</t>
+          <t>-6,6; 4,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 2,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 2,1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 4,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 2,44</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 3,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 2,33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 4,87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 2,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP2005-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 4,33</t>
+          <t>-9,45; 5,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,35</t>
+          <t>-5,23; 1,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 0,0</t>
+          <t>-3,21; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 6,44</t>
+          <t>-17,94; 5,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 4,84</t>
+          <t>-9,86; 5,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,38</t>
+          <t>-5,31; 1,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 0,0</t>
+          <t>-3,21; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 8,14</t>
+          <t>-20,13; 7,19</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,64</t>
+          <t>-3,37; 4,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,81</t>
+          <t>-6,04; 2,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,91</t>
+          <t>-4,84; 2,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 4,29</t>
+          <t>-6,48; 4,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 5,22</t>
+          <t>-3,59; 5,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,98</t>
+          <t>-6,33; 2,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,01</t>
+          <t>-5,0; 2,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 5,04</t>
+          <t>-7,09; 5,82</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 5,8</t>
+          <t>-8,62; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 7,17</t>
+          <t>-5,04; 6,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 12,99</t>
+          <t>2,6; 13,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 7,61</t>
+          <t>-4,25; 8,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 7,15</t>
+          <t>-9,93; 6,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 8,38</t>
+          <t>-5,64; 8,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 16,07</t>
+          <t>2,93; 16,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 9,36</t>
+          <t>-4,73; 10,68</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 5,85</t>
+          <t>-4,97; 6,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 6,47</t>
+          <t>-5,51; 6,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 7,94</t>
+          <t>-3,27; 8,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 3,97</t>
+          <t>-6,1; 3,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,99</t>
+          <t>-5,56; 7,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 7,96</t>
+          <t>-6,11; 8,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 9,65</t>
+          <t>-3,56; 10,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,54</t>
+          <t>-6,62; 4,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,8</t>
+          <t>-2,86; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,1</t>
+          <t>-3,13; 2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,38</t>
+          <t>-0,26; 4,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,44</t>
+          <t>-3,51; 2,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,18</t>
+          <t>-3,17; 3,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,33</t>
+          <t>-3,4; 2,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,87</t>
+          <t>-0,29; 5,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,79</t>
+          <t>-3,9; 2,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2005-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2005-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-6,31%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 5,31</t>
+          <t>-8,75; 4,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,38</t>
+          <t>-5,03; 1,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,0</t>
+          <t>-3,71; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 5,96</t>
+          <t>-17,12; 6,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 5,89</t>
+          <t>-9,27; 5,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 1,41</t>
+          <t>-5,07; 1,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,0</t>
+          <t>-3,71; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 7,19</t>
+          <t>-18,6; 8,75</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-0,71%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,49</t>
+          <t>-2,9; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,23</t>
+          <t>-5,89; 2,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 2,17</t>
+          <t>-4,51; 2,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 4,94</t>
+          <t>-6,77; 4,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,02</t>
+          <t>-3,08; 5,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 2,45</t>
+          <t>-6,19; 2,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 2,3</t>
+          <t>-4,62; 2,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 5,82</t>
+          <t>-7,39; 5,7</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 5,55</t>
+          <t>-8,82; 5,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 6,82</t>
+          <t>-5,51; 6,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 13,27</t>
+          <t>2,02; 12,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,59</t>
+          <t>-4,61; 7,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 6,79</t>
+          <t>-10,19; 6,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 8,09</t>
+          <t>-6,05; 8,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 16,35</t>
+          <t>2,45; 16,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 10,68</t>
+          <t>-5,19; 9,29</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>-0,34%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 6,27</t>
+          <t>-4,61; 6,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 6,75</t>
+          <t>-5,63; 6,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 8,42</t>
+          <t>-3,39; 8,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 3,81</t>
+          <t>-5,01; 5,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,55</t>
+          <t>-5,09; 7,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 8,07</t>
+          <t>-6,45; 7,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 10,15</t>
+          <t>-3,67; 10,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 4,37</t>
+          <t>-5,45; 5,83</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-0,2%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,68</t>
+          <t>-2,92; 2,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,17</t>
+          <t>-3,24; 1,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,58</t>
+          <t>-0,36; 4,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,58</t>
+          <t>-3,81; 2,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,08</t>
+          <t>-3,27; 3,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,43</t>
+          <t>-3,53; 2,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,11</t>
+          <t>-0,34; 5,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 2,97</t>
+          <t>-4,22; 3,3</t>
         </is>
       </c>
     </row>
